--- a/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\AndroidStudioProjects\p01\Documentation\ProjectDocumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FCC9C-2CD3-4147-B202-0FC94B577CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="19320" windowHeight="14520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Titel</t>
   </si>
@@ -78,9 +84,6 @@
     <t>Freigabe</t>
   </si>
   <si>
-    <t>Martina Musterfrau, Max Mustermann</t>
-  </si>
-  <si>
     <t>FH-Studenten</t>
   </si>
   <si>
@@ -96,24 +99,12 @@
     <t>Vollständiger Titel und Name des Projektbetreuers</t>
   </si>
   <si>
-    <t>Musterfirma</t>
-  </si>
-  <si>
     <t>Hier soll eine Kurzbeschreibung des Projekts eingefügt werden. Dieser Kurztext wird neben dem Logo des Projekts (1. Bild) auf der Projektübersichtsseite zu lesen sein. Die Länge sollte ca. 2-3 Sätze betragen.</t>
   </si>
   <si>
-    <t>Mustertitel</t>
-  </si>
-  <si>
-    <t>DI Dr. Max Mustermann, BSc, MSc</t>
-  </si>
-  <si>
     <t>Liste der Namen der Studierenden, die an diesem Projekt mitarbeiten, mit Komma getrennt.</t>
   </si>
   <si>
-    <t>Bild1.jpg,Bild2.png,Bild3.gif</t>
-  </si>
-  <si>
     <t>Ausfüllhinweise: Für 1 Projekt muss jeweils 1 Zeile ausgefüllt werden. Zu verwenden ist die obige Zeile mit den Musterdaten. Die ausgeblendeten Spalten sollen nicht eingeblendet werden.</t>
   </si>
   <si>
@@ -132,24 +123,37 @@
     <t>Bei Unklarheiten können die aktuellen Projektbeschreibungen auf der Website als Referenz herangezogen werden. Bei konkreten Fragen ist Kontakt mit Stephan Drab aufzunehmen.</t>
   </si>
   <si>
-    <t>Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.
-Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.</t>
-  </si>
-  <si>
-    <t>Dies ist eine Musterkurzbeschreibung. Dies ist eine Musterkurzbeschreibung.</t>
-  </si>
-  <si>
     <t>Sommersemester 2009</t>
   </si>
   <si>
     <t>abgeschlossen</t>
+  </si>
+  <si>
+    <t>Raytracing on Android</t>
+  </si>
+  <si>
+    <t>Raytracing_On_Android_1_Szene_1.jpg,Raytracing_On_Android_2_Szene_2.jpg,Raytracing_On_Android_3_Szene_3.jpg,Raytracing_On_Android_4_Szene_4.jpg</t>
+  </si>
+  <si>
+    <t>Andreas Baldinger, Miriam Kagerer, Abdu Shehata</t>
+  </si>
+  <si>
+    <t>Hannes Lugstein</t>
+  </si>
+  <si>
+    <t>Der Zweck der App ist es zu zeigen, dass Raytracing auf Android implementiert werden kann und dass aktuelle, mobile Hardware performant genug ist Realtime-Raytracing zu betreiben.
+Der entscheidende Vorteil gegenüber der etablierten Render-Methode “Rasterization” ist, dass sich mit Raytracing naturgetreue Lichtberechnungen durchführen lassen, die in einem realistischer aussehenden Bild resultieren.
+In der Filmindustrie profitiert man schon lange von den Vorzügen die Raytracing mit sich bringt. In Realtime-Computer-Grafikanwendungen wie Spielen (Bilder können nicht zu einem früheren Zeitpunkt vor-gerendert werden) war dies aber mit der bisherigen Hardware-Leistung nicht möglich, auf mobilen Endgeräten nahezu undenkbar.</t>
+  </si>
+  <si>
+    <t>Raytracing on Android is a realtime raytracer able to run on your smartphone.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,9 +273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -296,17 +297,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -348,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,14 +638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -620,7 +669,7 @@
     <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -682,231 +731,228 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1"/>
-    <row r="4" spans="1:20" s="6" customFormat="1"/>
-    <row r="5" spans="1:20" s="6" customFormat="1"/>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:20" ht="52.5" customHeight="1">
+    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:20" ht="27.75" customHeight="1">
+    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
   </sheetData>
   <sheetProtection password="E579" sheet="1" selectLockedCells="1"/>
@@ -929,12 +975,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -943,12 +989,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\AndroidStudioProjects\p01\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FCC9C-2CD3-4147-B202-0FC94B577CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8708B1-0002-4944-9CA5-C49585ACDA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>Bei Unklarheiten können die aktuellen Projektbeschreibungen auf der Website als Referenz herangezogen werden. Bei konkreten Fragen ist Kontakt mit Stephan Drab aufzunehmen.</t>
   </si>
   <si>
-    <t>Sommersemester 2009</t>
-  </si>
-  <si>
     <t>abgeschlossen</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Raytracing on Android is a realtime raytracer able to run on your smartphone.</t>
+  </si>
+  <si>
+    <t>Sommersemester 2021</t>
   </si>
 </sst>
 </file>
@@ -273,33 +273,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,34 +733,34 @@
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
@@ -770,189 +770,189 @@
     <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
     </row>
   </sheetData>
   <sheetProtection password="E579" sheet="1" selectLockedCells="1"/>
